--- a/Extra Work/hlr for loked out user.xlsx
+++ b/Extra Work/hlr for loked out user.xlsx
@@ -1,28 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ATRI ENTERPRISE\Documents\GitHub\Nirav_Tops\HLR and Testcase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NCS\Documents\GitHub\Nirav_Tops\Extra Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48520799-C6B8-407E-BBD8-72AB0714A1A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="HLR" sheetId="1" r:id="rId1"/>
     <sheet name="TestCase" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Test Scenario" sheetId="4" r:id="rId3"/>
+    <sheet name="Defect Report" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Defect Report'!$A$1:$M$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Test Scenario'!$A$1:$G$2</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="84">
   <si>
     <t>functionality id</t>
   </si>
@@ -207,13 +212,97 @@
   <si>
     <t>user name: 
 password: secret sauce</t>
+  </si>
+  <si>
+    <t>Test Summery</t>
+  </si>
+  <si>
+    <t>Defect ID</t>
+  </si>
+  <si>
+    <t>Reproduced Step</t>
+  </si>
+  <si>
+    <t>Defect Types</t>
+  </si>
+  <si>
+    <t>Defect Severity</t>
+  </si>
+  <si>
+    <t>Defect Priority</t>
+  </si>
+  <si>
+    <t>Tester Name</t>
+  </si>
+  <si>
+    <t>Attchment</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Nirav Goti</t>
+  </si>
+  <si>
+    <t>functionality,usability</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1LfITHMKz5WZlK-hgT6z4BCMTZ13fm-1q/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/17tcYnwmzxvbUfNRN8QZ4q06w0mKf91tW/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-nbPnOOuSIsrw3ELnTRrVl7kmSZ0divw/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Q78t-YBaKZmRnN5OTl-_SCZDBFnj1ZNJ/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1vz1CnoyxOGJrnpnkXPZwYfy8eJMBvcwC/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/186vye_iDVrn5iitiC9fKxh2CUoAiNuY-/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Ilx3ZXYgQQaFqgEWArlbDAAuBNBg74QE/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1G54RpGbDw_RNIqFk8gsFakFIZS5LZJm_/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1m7u-oSX1cEOBDrBOzgTc1r9NzsWWgRZx/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1u2tMiSKmKQ1m-cSZ5xTrTQrjTUvzsUIi/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Z4UufRzq9wnDvXbX0stAw7XdxwjoeYNz/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1eqKxXGq_iiIcy_UzUYeAinEPG24GU33y/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1iWOYjkAVIcR0rv7lkyWo_oHXrqyEDcoB/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1HAP6TomD6H27WEgg9o4L_6q1DpJ7mi1v/view?usp=share_link</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,6 +345,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -289,10 +386,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -333,8 +431,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -426,23 +528,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -478,23 +563,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -670,7 +738,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -724,11 +792,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1223,7 +1291,730 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="28.7109375" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" customWidth="1"/>
+    <col min="5" max="5" width="36.7109375" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="28.7109375" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" customWidth="1"/>
+    <col min="5" max="8" width="36.7109375" customWidth="1"/>
+    <col min="9" max="9" width="22" customWidth="1"/>
+    <col min="10" max="12" width="21.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="7" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A2" s="13">
+        <v>2</v>
+      </c>
+      <c r="B2" s="13">
+        <v>2</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
+        <v>3</v>
+      </c>
+      <c r="B3" s="13">
+        <v>2</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>4</v>
+      </c>
+      <c r="B4" s="13">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>5</v>
+      </c>
+      <c r="B5" s="13">
+        <v>2</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>6</v>
+      </c>
+      <c r="B6" s="13">
+        <v>2</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="7" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>7</v>
+      </c>
+      <c r="B7" s="13">
+        <v>2</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>8</v>
+      </c>
+      <c r="B8" s="13">
+        <v>2</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="7" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>9</v>
+      </c>
+      <c r="B9" s="13">
+        <v>2</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>10</v>
+      </c>
+      <c r="B10" s="13">
+        <v>2</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <v>11</v>
+      </c>
+      <c r="B11" s="13">
+        <v>2</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
+        <v>12</v>
+      </c>
+      <c r="B12" s="13">
+        <v>2</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
+        <v>13</v>
+      </c>
+      <c r="B13" s="13">
+        <v>2</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="L13" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
+        <v>14</v>
+      </c>
+      <c r="B14" s="13">
+        <v>2</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
+        <v>15</v>
+      </c>
+      <c r="B15" s="13">
+        <v>2</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="L15" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1"/>
+    <hyperlink ref="L3" r:id="rId2"/>
+    <hyperlink ref="L4" r:id="rId3"/>
+    <hyperlink ref="L5" r:id="rId4"/>
+    <hyperlink ref="L6" r:id="rId5"/>
+    <hyperlink ref="L7" r:id="rId6"/>
+    <hyperlink ref="L8" r:id="rId7"/>
+    <hyperlink ref="L9" r:id="rId8"/>
+    <hyperlink ref="L10" r:id="rId9"/>
+    <hyperlink ref="L11" r:id="rId10"/>
+    <hyperlink ref="L12" r:id="rId11"/>
+    <hyperlink ref="L13" r:id="rId12"/>
+    <hyperlink ref="L14" r:id="rId13"/>
+    <hyperlink ref="L15" r:id="rId14"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId15"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
